--- a/document/availability declaration and contract energy.xlsx
+++ b/document/availability declaration and contract energy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\un_ch\OneDrive\Desktop\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\un_ch\OneDrive\Desktop\makarigad-site\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA86B801-87FB-499C-86F6-1D910DB87D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143ABE20-FACA-4DD0-A40D-169A5F31F8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{3523F9C1-AF23-4664-8E57-0D1F444355C6}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3523F9C1-AF23-4664-8E57-0D1F444355C6}"/>
   </bookViews>
   <sheets>
     <sheet name="AD" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Month</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
         <v>312.35000000000002</v>
       </c>
       <c r="I2" s="2">
-        <v>312.35000000000002</v>
+        <v>534.09946666666667</v>
       </c>
       <c r="J2" s="1">
         <v>4</v>
@@ -557,7 +557,7 @@
         <v>3385.1550000000002</v>
       </c>
       <c r="I3" s="2">
-        <v>4005.7460000000001</v>
+        <v>4153.5649999999996</v>
       </c>
       <c r="J3" s="1">
         <v>30</v>
@@ -589,7 +589,7 @@
         <v>5225.8079299999999</v>
       </c>
       <c r="I4" s="2">
-        <v>4153.5649999999996</v>
+        <v>5454.5739999999996</v>
       </c>
       <c r="J4" s="1">
         <v>31</v>
@@ -621,7 +621,7 @@
         <v>7026.7824000000001</v>
       </c>
       <c r="I5" s="2">
-        <v>5454.5739999999996</v>
+        <v>7299.0719999999992</v>
       </c>
       <c r="J5" s="1">
         <v>32</v>
@@ -653,7 +653,7 @@
         <v>7002.5472</v>
       </c>
       <c r="I6" s="2">
-        <v>7070.9759999999997</v>
+        <v>7070.9760000000006</v>
       </c>
       <c r="J6" s="1">
         <v>31</v>
@@ -685,7 +685,7 @@
         <v>7299.0719999999992</v>
       </c>
       <c r="I7" s="2">
-        <v>7299.0720000000001</v>
+        <v>7299.0719999999992</v>
       </c>
       <c r="J7" s="1">
         <v>32</v>
@@ -749,7 +749,7 @@
         <v>7070.9759999999997</v>
       </c>
       <c r="I9" s="2">
-        <v>7070.9759999999997</v>
+        <v>6842.8799999999992</v>
       </c>
       <c r="J9" s="1">
         <v>30</v>
@@ -781,7 +781,7 @@
         <v>6697.6980000000003</v>
       </c>
       <c r="I10" s="2">
-        <v>7070.9759999999997</v>
+        <v>6697.6980000000003</v>
       </c>
       <c r="J10" s="1">
         <v>30</v>
@@ -813,7 +813,7 @@
         <v>4805.8327499999996</v>
       </c>
       <c r="I11" s="2">
-        <v>6697.6980000000003</v>
+        <v>5638.810344827587</v>
       </c>
       <c r="J11" s="1">
         <v>30</v>
@@ -845,7 +845,7 @@
         <v>3160.3668299999999</v>
       </c>
       <c r="I12" s="2">
-        <v>5450.85</v>
+        <v>4408.6476666666667</v>
       </c>
       <c r="J12" s="1">
         <v>29</v>
@@ -877,7 +877,7 @@
         <v>2521.3108099999999</v>
       </c>
       <c r="I13" s="2">
-        <v>4560.67</v>
+        <v>3850.3429999999998</v>
       </c>
       <c r="J13" s="1">
         <v>29</v>
@@ -909,7 +909,7 @@
         <v>2213.84229</v>
       </c>
       <c r="I14" s="2">
-        <v>3850.3429999999998</v>
+        <v>4005.7460000000001</v>
       </c>
       <c r="J14" s="1">
         <v>30</v>
@@ -941,7 +941,7 @@
         <v>3232.8580900000002</v>
       </c>
       <c r="I15" s="2">
-        <v>4005.7460000000001</v>
+        <v>4153.5649999999996</v>
       </c>
       <c r="J15" s="1">
         <v>30</v>
@@ -973,7 +973,7 @@
         <v>5055.1584199999998</v>
       </c>
       <c r="I16" s="2">
-        <v>4153.5649999999996</v>
+        <v>5454.5739999999996</v>
       </c>
       <c r="J16" s="1">
         <v>31</v>
@@ -1002,10 +1002,10 @@
         <v>228096</v>
       </c>
       <c r="H17" s="2">
-        <v>5661.8223758078402</v>
+        <v>5816.4480000000003</v>
       </c>
       <c r="I17" s="2">
-        <v>5454.5739999999996</v>
+        <v>7299.0719999999992</v>
       </c>
       <c r="J17" s="1">
         <v>32</v>
@@ -1037,7 +1037,7 @@
         <v>5987.52</v>
       </c>
       <c r="I18" s="2">
-        <v>7070.9759999999997</v>
+        <v>7070.9760000000006</v>
       </c>
       <c r="J18" s="1">
         <v>31</v>
@@ -1069,7 +1069,7 @@
         <v>7299.0720000000001</v>
       </c>
       <c r="I19" s="2">
-        <v>7299.0720000000001</v>
+        <v>7299.0719999999992</v>
       </c>
       <c r="J19" s="1">
         <v>32</v>
@@ -1133,7 +1133,7 @@
         <v>6842.88</v>
       </c>
       <c r="I21" s="2">
-        <v>7070.9759999999997</v>
+        <v>6842.8799999999992</v>
       </c>
       <c r="J21" s="1">
         <v>30</v>
@@ -1165,7 +1165,7 @@
         <v>6697.6980000000003</v>
       </c>
       <c r="I22" s="2">
-        <v>7070.9759999999997</v>
+        <v>6697.6980000000003</v>
       </c>
       <c r="J22" s="1">
         <v>30</v>
@@ -1197,7 +1197,7 @@
         <v>4304.29</v>
       </c>
       <c r="I23" s="2">
-        <v>6697.6980000000003</v>
+        <v>5638.810344827587</v>
       </c>
       <c r="J23" s="1">
         <v>30</v>
@@ -1229,7 +1229,7 @@
         <v>3162.0645300000001</v>
       </c>
       <c r="I24" s="2">
-        <v>5450.85</v>
+        <v>4408.6476666666667</v>
       </c>
       <c r="J24" s="1">
         <v>29</v>
@@ -1261,7 +1261,7 @@
         <v>2668.6860099999999</v>
       </c>
       <c r="I25" s="2">
-        <v>4560.67</v>
+        <v>3983.1134482758621</v>
       </c>
       <c r="J25" s="1">
         <v>30</v>
@@ -1293,10 +1293,10 @@
         <v>2423.47633</v>
       </c>
       <c r="I26" s="2">
-        <v>3850.3429999999998</v>
+        <v>3872.2211333333335</v>
       </c>
       <c r="J26" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>3945.8867500000001</v>
       </c>
       <c r="I27" s="2">
-        <v>3850.3429999999998</v>
+        <v>4292.0171666666656</v>
       </c>
       <c r="J27" s="1">
         <v>31</v>
@@ -1357,7 +1357,7 @@
         <v>5454.57</v>
       </c>
       <c r="I28" s="2">
-        <v>4153.5649999999996</v>
+        <v>5454.5739999999996</v>
       </c>
       <c r="J28" s="1">
         <v>31</v>
@@ -1389,7 +1389,7 @@
         <v>6763.0464000000002</v>
       </c>
       <c r="I29" s="2">
-        <v>5454.5739999999996</v>
+        <v>7070.9759999999997</v>
       </c>
       <c r="J29" s="1">
         <v>31</v>
@@ -1421,7 +1421,7 @@
         <v>7299.0720000000001</v>
       </c>
       <c r="I30" s="2">
-        <v>7070.9759999999997</v>
+        <v>7299.0720000000001</v>
       </c>
       <c r="J30" s="1">
         <v>32</v>
@@ -1456,6 +1456,70 @@
         <v>7070.9759999999997</v>
       </c>
       <c r="J31" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>2082</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1596672</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1596672</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1596672</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1596672</v>
+      </c>
+      <c r="G32" s="2">
+        <v>684288</v>
+      </c>
+      <c r="H32" s="2">
+        <v>7070.9759999999997</v>
+      </c>
+      <c r="I32" s="2">
+        <v>7070.9759999999997</v>
+      </c>
+      <c r="J32" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>2082</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1596672</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1596672</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1596672</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1596672</v>
+      </c>
+      <c r="G33" s="2">
+        <v>684288</v>
+      </c>
+      <c r="H33" s="2">
+        <v>7070.9759999999997</v>
+      </c>
+      <c r="I33" s="2">
+        <v>7070.9759999999997</v>
+      </c>
+      <c r="J33" s="1">
         <v>31</v>
       </c>
     </row>
